--- a/Hospital_Information.xlsx
+++ b/Hospital_Information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>S.No.</t>
   </si>
@@ -50,169 +50,172 @@
     <t>Queens Hospital</t>
   </si>
   <si>
+    <t>SPARSH Hospital</t>
+  </si>
+  <si>
+    <t>AyurVAID Hospitals</t>
+  </si>
+  <si>
+    <t>HCG - The Specialist in Cancer Care</t>
+  </si>
+  <si>
+    <t>Navachethana Hospital</t>
+  </si>
+  <si>
+    <t>Narayana Hrudhayalaya Multispeciality Hospital</t>
+  </si>
+  <si>
+    <t>Poornima Hospital</t>
+  </si>
+  <si>
+    <t>Sakra World Hospital</t>
+  </si>
+  <si>
+    <t>Specialist Hospital</t>
+  </si>
+  <si>
+    <t>Cloudnine Children's Hospital - Jayanagar</t>
+  </si>
+  <si>
+    <t>Aaxis Super Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Columbia Asia Hospital</t>
+  </si>
+  <si>
+    <t>Greenview Medical Center</t>
+  </si>
+  <si>
+    <t>Axon Speciality Hospital</t>
+  </si>
+  <si>
+    <t>St. Philomena's Hospital</t>
+  </si>
+  <si>
+    <t>Blossom multispecialty hospital</t>
+  </si>
+  <si>
+    <t>Sagar Hospitals</t>
+  </si>
+  <si>
+    <t>Ramakrishna Super Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Old Airport Road</t>
+  </si>
+  <si>
+    <t>Spandana Hospital &amp; HCC</t>
+  </si>
+  <si>
+    <t>Sanjeevini MultispecialIty Hospital</t>
+  </si>
+  <si>
+    <t>Divakars Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Mallige Medical Centre</t>
+  </si>
+  <si>
+    <t>Springleaf Healthcare</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Whitefield</t>
+  </si>
+  <si>
+    <t>RxDx Healthcare</t>
+  </si>
+  <si>
+    <t>Apple Hospital</t>
+  </si>
+  <si>
+    <t>Birthright By Rainbow</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Bellandur</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Jayanagar</t>
+  </si>
+  <si>
+    <t>Ovum Woman &amp; Child Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Sakhii Hospital</t>
+  </si>
+  <si>
+    <t>Acura Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Aveksha Hospital</t>
+  </si>
+  <si>
+    <t>Brindhavvan Areion Hospital</t>
+  </si>
+  <si>
     <t>Cloudnine Fertility - IVF Centre, Old Airport Road</t>
   </si>
   <si>
-    <t>SPARSH Hospital</t>
-  </si>
-  <si>
     <t>Cloudnine Fertility - IVF Centre, Jayanagar</t>
   </si>
   <si>
+    <t>Trustwell Hospitals</t>
+  </si>
+  <si>
     <t>Cloudnine Fertility - IVF Centre, Whitefield</t>
   </si>
   <si>
-    <t>AyurVAID Hospitals</t>
+    <t>Hospitec Multi Speciality Hospital</t>
+  </si>
+  <si>
+    <t>Bhagwan Mahaveer Jain Hospital</t>
+  </si>
+  <si>
+    <t>Spandana Hospital Rehabilitation Center</t>
+  </si>
+  <si>
+    <t>Parkmed</t>
+  </si>
+  <si>
+    <t>Punya Hospital</t>
+  </si>
+  <si>
+    <t>Nethradhama Super Speciality Eye Hospital</t>
+  </si>
+  <si>
+    <t>Wellspring Mother &amp; Child Hospital</t>
+  </si>
+  <si>
+    <t>Abhaya Hospital</t>
+  </si>
+  <si>
+    <t>Cloudnine Hospital - Malleshwaram</t>
   </si>
   <si>
     <t>Cloudnine Fertility - IVF Centre, Malleshwaram</t>
   </si>
   <si>
-    <t>HCG - The Specialist in Cancer Care</t>
+    <t>Rainbow Children's Hospital</t>
+  </si>
+  <si>
+    <t>S J Hospital</t>
+  </si>
+  <si>
+    <t>Mazumdar Shaw Medical Center</t>
+  </si>
+  <si>
+    <t>Family Hospital</t>
   </si>
   <si>
     <t>Cloudnine Fertility - IVF Centre, Bellandur</t>
   </si>
   <si>
+    <t>Shekhar Hospital</t>
+  </si>
+  <si>
+    <t>Acharya Tulasi Jain Hospital</t>
+  </si>
+  <si>
     <t>Cloudnine Fertility - IVF Centre, HRBR Layout</t>
-  </si>
-  <si>
-    <t>Navachethana Hospital</t>
-  </si>
-  <si>
-    <t>Narayana Hrudhayalaya Multispeciality Hospital</t>
-  </si>
-  <si>
-    <t>Poornima Hospital</t>
-  </si>
-  <si>
-    <t>Sakra World Hospital</t>
-  </si>
-  <si>
-    <t>Specialist Hospital</t>
-  </si>
-  <si>
-    <t>Cloudnine Children's Hospital - Jayanagar</t>
-  </si>
-  <si>
-    <t>Aaxis Super Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Columbia Asia Hospital</t>
-  </si>
-  <si>
-    <t>Greenview Medical Center</t>
-  </si>
-  <si>
-    <t>Axon Speciality Hospital</t>
-  </si>
-  <si>
-    <t>St. Philomena's Hospital</t>
-  </si>
-  <si>
-    <t>Blossom multispecialty hospital</t>
-  </si>
-  <si>
-    <t>Sagar Hospitals</t>
-  </si>
-  <si>
-    <t>Ramakrishna Super Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Old Airport Road</t>
-  </si>
-  <si>
-    <t>Spandana Hospital &amp; HCC</t>
-  </si>
-  <si>
-    <t>Sanjeevini MultispecialIty Hospital</t>
-  </si>
-  <si>
-    <t>Divakars Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Mallige Medical Centre</t>
-  </si>
-  <si>
-    <t>Springleaf Healthcare</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Whitefield</t>
-  </si>
-  <si>
-    <t>RxDx Healthcare</t>
-  </si>
-  <si>
-    <t>Apple Hospital</t>
-  </si>
-  <si>
-    <t>Birthright By Rainbow</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Bellandur</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Jayanagar</t>
-  </si>
-  <si>
-    <t>Ovum Woman &amp; Child Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Sakhii Hospital</t>
-  </si>
-  <si>
-    <t>Acura Speciality Hospital</t>
-  </si>
-  <si>
-    <t>Aveksha Hospital</t>
-  </si>
-  <si>
-    <t>Brindhavvan Areion Hospital</t>
-  </si>
-  <si>
-    <t>Trustwell Hospitals</t>
-  </si>
-  <si>
-    <t>Bhagwan Mahaveer Jain Hospital</t>
-  </si>
-  <si>
-    <t>Spandana Hospital Rehabilitation Center</t>
-  </si>
-  <si>
-    <t>Parkmed</t>
-  </si>
-  <si>
-    <t>Punya Hospital</t>
-  </si>
-  <si>
-    <t>Nethradhama Super Speciality Eye Hospital</t>
-  </si>
-  <si>
-    <t>Wellspring Mother &amp; Child Hospital</t>
-  </si>
-  <si>
-    <t>Abhaya Hospital</t>
-  </si>
-  <si>
-    <t>Cloudnine Hospital - Malleshwaram</t>
-  </si>
-  <si>
-    <t>Rainbow Children's Hospital</t>
-  </si>
-  <si>
-    <t>S J Hospital</t>
-  </si>
-  <si>
-    <t>Mazumdar Shaw Medical Center</t>
-  </si>
-  <si>
-    <t>Family Hospital</t>
-  </si>
-  <si>
-    <t>Shekhar Hospital</t>
-  </si>
-  <si>
-    <t>Acharya Tulasi Jain Hospital</t>
   </si>
   <si>
     <t>Motherhood Fertility - Sarjapur Road</t>
@@ -275,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,7 +385,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -404,7 +407,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -426,7 +429,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -437,7 +440,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -448,7 +451,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -470,7 +473,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -503,7 +506,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -514,7 +517,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -525,7 +528,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -536,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -547,7 +550,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -591,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -602,7 +605,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -613,7 +616,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -635,7 +638,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -668,7 +671,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -679,7 +682,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -690,7 +693,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -701,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -734,7 +737,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -745,7 +748,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -756,7 +759,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -767,7 +770,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -778,7 +781,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -789,7 +792,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -811,7 +814,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -844,7 +847,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -855,7 +858,7 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -877,7 +880,7 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -888,7 +891,7 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -899,7 +902,7 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -921,7 +924,7 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -932,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -976,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -987,7 +990,7 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -998,7 +1001,7 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1031,6 +1034,17 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Hospital_Information.xlsx
+++ b/Hospital_Information.xlsx
@@ -29,39 +29,39 @@
     <t>5</t>
   </si>
   <si>
+    <t>Apollo Cradle</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>NU Hospitals</t>
+  </si>
+  <si>
+    <t>Jayashree Multispeciality Hospital</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Queens Hospital</t>
+  </si>
+  <si>
+    <t>SPARSH Hospital</t>
+  </si>
+  <si>
+    <t>HCG - The Specialist in Cancer Care</t>
+  </si>
+  <si>
+    <t>Cura Hospitals</t>
+  </si>
+  <si>
+    <t>Navachethana Hospital</t>
+  </si>
+  <si>
     <t>Koshys Hospital</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Apollo Cradle</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>NU Hospitals</t>
-  </si>
-  <si>
-    <t>Jayashree Multispeciality Hospital</t>
-  </si>
-  <si>
-    <t>Queens Hospital</t>
-  </si>
-  <si>
-    <t>SPARSH Hospital</t>
-  </si>
-  <si>
-    <t>AyurVAID Hospitals</t>
-  </si>
-  <si>
-    <t>HCG - The Specialist in Cancer Care</t>
-  </si>
-  <si>
-    <t>Navachethana Hospital</t>
-  </si>
-  <si>
     <t>Narayana Hrudhayalaya Multispeciality Hospital</t>
   </si>
   <si>
@@ -140,12 +140,12 @@
     <t>Ovum Woman &amp; Child Speciality Hospital</t>
   </si>
   <si>
+    <t>Acura Speciality Hospital</t>
+  </si>
+  <si>
     <t>Sakhii Hospital</t>
   </si>
   <si>
-    <t>Acura Speciality Hospital</t>
-  </si>
-  <si>
     <t>Aveksha Hospital</t>
   </si>
   <si>
@@ -188,10 +188,10 @@
     <t>Abhaya Hospital</t>
   </si>
   <si>
+    <t>Cloudnine Fertility - IVF Centre, Malleshwaram</t>
+  </si>
+  <si>
     <t>Cloudnine Hospital - Malleshwaram</t>
-  </si>
-  <si>
-    <t>Cloudnine Fertility - IVF Centre, Malleshwaram</t>
   </si>
   <si>
     <t>Rainbow Children's Hospital</t>
@@ -330,7 +330,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -338,10 +338,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -363,7 +363,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -374,7 +374,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -385,7 +385,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -396,7 +396,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -407,7 +407,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -418,7 +418,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -429,7 +429,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -440,7 +440,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -451,7 +451,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -473,7 +473,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -484,7 +484,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -495,7 +495,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -506,7 +506,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -517,7 +517,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -528,7 +528,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -572,7 +572,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -583,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -594,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -605,7 +605,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -616,7 +616,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -638,7 +638,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -649,7 +649,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -682,7 +682,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -704,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -715,7 +715,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -726,7 +726,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -737,7 +737,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -759,7 +759,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +814,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -825,7 +825,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -847,7 +847,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -869,7 +869,7 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -880,7 +880,7 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -891,7 +891,7 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -902,7 +902,7 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -913,7 +913,7 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -924,7 +924,7 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -957,7 +957,7 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -968,7 +968,7 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -990,7 +990,7 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1001,7 +1001,7 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -1023,7 +1023,7 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
